--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -404,7 +404,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Actual</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -528,10 +536,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$27</c:f>
+              <c:f>Sheet1!$C$3:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>41</c:v>
                 </c:pt>
@@ -603,6 +611,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,11 +633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-27145024"/>
-        <c:axId val="-27156992"/>
+        <c:axId val="505552720"/>
+        <c:axId val="505542928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-27145024"/>
+        <c:axId val="505552720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-27156992"/>
+        <c:crossAx val="505542928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -730,7 +744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-27156992"/>
+        <c:axId val="505542928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-27145024"/>
+        <c:crossAx val="505552720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1729,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,6 +2076,9 @@
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2070,6 +2087,9 @@
       <c r="B28">
         <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -309,88 +309,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.5</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>35.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.5</c:v>
+                  <c:v>33.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>29.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.5</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>26.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.5</c:v>
+                  <c:v>25.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.5</c:v>
+                  <c:v>22.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>21.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.5</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.5</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.5</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.5</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.5</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -541,22 +541,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>33</c:v>
@@ -568,55 +568,58 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,11 +636,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="505552720"/>
-        <c:axId val="505542928"/>
+        <c:axId val="-56323328"/>
+        <c:axId val="-56322784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="505552720"/>
+        <c:axId val="-56323328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505542928"/>
+        <c:crossAx val="-56322784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -744,7 +747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="505542928"/>
+        <c:axId val="-56322784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,7 +854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505552720"/>
+        <c:crossAx val="-56323328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1743,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,10 +1777,10 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -1792,10 +1795,10 @@
       </c>
       <c r="B4">
         <f xml:space="preserve"> ROUND(B3 - (B$3 / 28),0)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1">
         <v>42604</v>
@@ -1810,10 +1813,10 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B29" si="0" xml:space="preserve"> ROUND(B4 - (B$3 / 28),1)</f>
-        <v>38.5</v>
+        <v>36.6</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,10 +1825,10 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,10 +1837,10 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>35.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1846,10 +1849,10 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>32.4</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1858,7 +1861,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>33</v>
@@ -1870,7 +1873,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29.6</v>
       </c>
       <c r="C10">
         <v>33</v>
@@ -1882,7 +1885,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>29.5</v>
+        <v>28.2</v>
       </c>
       <c r="C11">
         <v>33</v>
@@ -1894,10 +1897,10 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,10 +1909,10 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,10 +1921,10 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1930,10 +1933,10 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>22.6</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1942,10 +1945,10 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
+        <v>21.2</v>
+      </c>
+      <c r="C16">
         <v>22</v>
-      </c>
-      <c r="C16">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1954,10 +1957,10 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>19.8</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1966,10 +1969,10 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1978,10 +1981,10 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,10 +1993,10 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2002,10 +2005,10 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2014,10 +2017,10 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,10 +2029,10 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,10 +2053,10 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2062,10 +2065,10 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,10 +2077,10 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2086,10 +2089,10 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2098,7 +2101,10 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2107,7 +2113,7 @@
       </c>
       <c r="B30">
         <f xml:space="preserve"> ROUND(B29 - (B$3 / 28),1)</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2115,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <f xml:space="preserve"> MAX(0,ROUND(B30 - (B$3 / 28),1))</f>
+        <f>ROUND(B30-(B$3/28),0)</f>
         <v>0</v>
       </c>
     </row>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -621,6 +621,9 @@
                 <c:pt idx="26">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -636,11 +639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-56323328"/>
-        <c:axId val="-56322784"/>
+        <c:axId val="-1627009808"/>
+        <c:axId val="-1627003280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-56323328"/>
+        <c:axId val="-1627009808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,7 +742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-56322784"/>
+        <c:crossAx val="-1627003280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -747,7 +750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-56322784"/>
+        <c:axId val="-1627003280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-56323328"/>
+        <c:crossAx val="-1627009808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1746,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,6 +2118,9 @@
         <f xml:space="preserve"> ROUND(B29 - (B$3 / 28),1)</f>
         <v>1.6</v>
       </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\IFB299-Group23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -624,6 +624,9 @@
                 <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -639,11 +642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1627009808"/>
-        <c:axId val="-1627003280"/>
+        <c:axId val="312917024"/>
+        <c:axId val="312917568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1627009808"/>
+        <c:axId val="312917024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1627003280"/>
+        <c:crossAx val="312917568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -750,7 +753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1627003280"/>
+        <c:axId val="312917568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1627009808"/>
+        <c:crossAx val="312917024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1749,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,6 +2133,9 @@
         <f>ROUND(B30-(B$3/28),0)</f>
         <v>0</v>
       </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\IFB299-Group23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Days</t>
   </si>
@@ -140,7 +141,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -624,9 +624,6 @@
                 <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -642,11 +639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="312917024"/>
-        <c:axId val="312917568"/>
+        <c:axId val="-1945614640"/>
+        <c:axId val="-1945608656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312917024"/>
+        <c:axId val="-1945614640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,6 +672,677 @@
                   <a:rPr lang="en-AU"/>
                   <a:t>Days Till Release 1</a:t>
                 </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1945608656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1945608656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Tasks to be done</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1945614640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 3 Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sprint3!$A$3:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint3!$B$3:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint3!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sprint3!$A$3:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint3!$C$3:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1945611376"/>
+        <c:axId val="-1945613008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1945611376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Days Till release</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> one</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -745,7 +1413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312917568"/>
+        <c:crossAx val="-1945613008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -753,7 +1421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312917568"/>
+        <c:axId val="-1945613008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +1528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312917024"/>
+        <c:crossAx val="-1945611376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -949,7 +1617,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1471,6 +2682,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1750,9 +2998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -2133,8 +3382,263 @@
         <f>ROUND(B30-(B$3/28),0)</f>
         <v>0</v>
       </c>
-      <c r="C31">
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f xml:space="preserve"> ROUND(B3 - (B$3 / 21),2)</f>
+        <v>85.71</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42632</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B23" si="0" xml:space="preserve"> ROUND(B4 - (B$3 / 21),2)</f>
+        <v>81.42</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>77.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>72.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>68.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>64.260000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>59.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>55.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>51.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>42.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>38.520000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>34.229999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>29.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f xml:space="preserve"> ROUND(B23 - (B$3 / 21),0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -639,11 +639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1945614640"/>
-        <c:axId val="-1945608656"/>
+        <c:axId val="-710436544"/>
+        <c:axId val="-710439808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1945614640"/>
+        <c:axId val="-710436544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945608656"/>
+        <c:crossAx val="-710439808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -749,7 +749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945608656"/>
+        <c:axId val="-710439808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945614640"/>
+        <c:crossAx val="-710436544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1288,7 +1288,7 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,11 +1305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1945611376"/>
-        <c:axId val="-1945613008"/>
+        <c:axId val="-710435456"/>
+        <c:axId val="-710432192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1945611376"/>
+        <c:axId val="-710435456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945613008"/>
+        <c:crossAx val="-710432192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,7 +1421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945613008"/>
+        <c:axId val="-710432192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,7 +1528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945611376"/>
+        <c:crossAx val="-710435456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3398,7 +3398,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,7 +3467,7 @@
         <v>81.42</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\QUT\Year 2\Sem 2\IFB299\IFB299-Group23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -639,11 +639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-710436544"/>
-        <c:axId val="-710439808"/>
+        <c:axId val="2077942944"/>
+        <c:axId val="2077944576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-710436544"/>
+        <c:axId val="2077942944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-710439808"/>
+        <c:crossAx val="2077944576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -749,7 +749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-710439808"/>
+        <c:axId val="2077944576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-710436544"/>
+        <c:crossAx val="2077942944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1290,6 +1290,9 @@
                 <c:pt idx="2">
                   <c:v>92</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1305,11 +1308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-710435456"/>
-        <c:axId val="-710432192"/>
+        <c:axId val="2077949472"/>
+        <c:axId val="2077950016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-710435456"/>
+        <c:axId val="2077949472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-710432192"/>
+        <c:crossAx val="2077950016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,7 +1424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-710432192"/>
+        <c:axId val="2077950016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,7 +1531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-710435456"/>
+        <c:crossAx val="2077949472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3398,7 +3401,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,6 +3481,9 @@
         <f t="shared" si="0"/>
         <v>77.13</v>
       </c>
+      <c r="C6">
+        <v>89</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -639,11 +639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2077942944"/>
-        <c:axId val="2077944576"/>
+        <c:axId val="675071376"/>
+        <c:axId val="675073008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2077942944"/>
+        <c:axId val="675071376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2077944576"/>
+        <c:crossAx val="675073008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -749,7 +749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077944576"/>
+        <c:axId val="675073008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2077942944"/>
+        <c:crossAx val="675071376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1293,6 +1293,9 @@
                 <c:pt idx="3">
                   <c:v>89</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1308,11 +1311,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2077949472"/>
-        <c:axId val="2077950016"/>
+        <c:axId val="1081955440"/>
+        <c:axId val="1081950000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2077949472"/>
+        <c:axId val="1081955440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2077950016"/>
+        <c:crossAx val="1081950000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1424,7 +1427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077950016"/>
+        <c:axId val="1081950000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2077949472"/>
+        <c:crossAx val="1081955440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3401,7 +3404,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3493,6 +3496,10 @@
         <f t="shared" si="0"/>
         <v>72.84</v>
       </c>
+      <c r="C7">
+        <f>C6-22</f>
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Days</t>
   </si>
@@ -43,6 +43,33 @@
   </si>
   <si>
     <t>Finish date</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -639,11 +666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675071376"/>
-        <c:axId val="675073008"/>
+        <c:axId val="-1085188672"/>
+        <c:axId val="-1085195200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="675071376"/>
+        <c:axId val="-1085188672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675073008"/>
+        <c:crossAx val="-1085195200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -749,7 +776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675073008"/>
+        <c:axId val="-1085195200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675071376"/>
+        <c:crossAx val="-1085188672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1311,11 +1338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1081955440"/>
-        <c:axId val="1081950000"/>
+        <c:axId val="-1085188128"/>
+        <c:axId val="-1085193568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1081955440"/>
+        <c:axId val="-1085188128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,7 +1446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1081950000"/>
+        <c:crossAx val="-1085193568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1427,7 +1454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1081950000"/>
+        <c:axId val="-1085193568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1081955440"/>
+        <c:crossAx val="-1085188128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2708,16 +2735,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3401,24 +3428,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3428,8 +3457,20 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -3439,14 +3480,20 @@
       <c r="C3">
         <v>90</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42632</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42632</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -3457,14 +3504,14 @@
       <c r="C4">
         <v>90</v>
       </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="1">
-        <v>42632</v>
-      </c>
-      <c r="F4" s="1">
-        <v>42653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>19</v>
       </c>
@@ -3475,8 +3522,14 @@
       <c r="C5">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
@@ -3487,8 +3540,14 @@
       <c r="C6">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
@@ -3500,8 +3559,14 @@
         <f>C6-22</f>
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>42636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -3509,8 +3574,14 @@
         <f t="shared" si="0"/>
         <v>68.55</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -3518,8 +3589,14 @@
         <f t="shared" si="0"/>
         <v>64.260000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -3527,8 +3604,14 @@
         <f t="shared" si="0"/>
         <v>59.97</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -3536,8 +3619,14 @@
         <f t="shared" si="0"/>
         <v>55.68</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3545,8 +3634,14 @@
         <f t="shared" si="0"/>
         <v>51.39</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3554,8 +3649,14 @@
         <f t="shared" si="0"/>
         <v>47.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3563,8 +3664,14 @@
         <f t="shared" si="0"/>
         <v>42.81</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -3572,8 +3679,14 @@
         <f t="shared" si="0"/>
         <v>38.520000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -3581,8 +3694,14 @@
         <f t="shared" si="0"/>
         <v>34.229999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -3590,8 +3709,14 @@
         <f t="shared" si="0"/>
         <v>29.94</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -3599,8 +3724,14 @@
         <f t="shared" si="0"/>
         <v>25.65</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3608,8 +3739,14 @@
         <f t="shared" si="0"/>
         <v>21.36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -3617,8 +3754,14 @@
         <f t="shared" si="0"/>
         <v>17.07</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3626,8 +3769,14 @@
         <f t="shared" si="0"/>
         <v>12.78</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>42650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3635,8 +3784,14 @@
         <f t="shared" si="0"/>
         <v>8.49</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1">
+        <v>42651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3644,14 +3799,26 @@
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1">
+        <v>42652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="B24">
         <f xml:space="preserve"> ROUND(B23 - (B$3 / 21),0)</f>
         <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>42653</v>
       </c>
     </row>
   </sheetData>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -666,11 +666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1085188672"/>
-        <c:axId val="-1085195200"/>
+        <c:axId val="2135404320"/>
+        <c:axId val="2129686768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1085188672"/>
+        <c:axId val="2135404320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1085195200"/>
+        <c:crossAx val="2129686768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -776,7 +776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1085195200"/>
+        <c:axId val="2129686768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1085188672"/>
+        <c:crossAx val="2135404320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1323,6 +1323,9 @@
                 <c:pt idx="4">
                   <c:v>67</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1338,11 +1341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1085188128"/>
-        <c:axId val="-1085193568"/>
+        <c:axId val="2129690576"/>
+        <c:axId val="2129694384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1085188128"/>
+        <c:axId val="2129690576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,7 +1449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1085193568"/>
+        <c:crossAx val="2129694384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1454,7 +1457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1085193568"/>
+        <c:axId val="2129694384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1085188128"/>
+        <c:crossAx val="2129690576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3431,7 +3434,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,6 +3577,10 @@
         <f t="shared" si="0"/>
         <v>68.55</v>
       </c>
+      <c r="C8">
+        <f>C7-8</f>
+        <v>59</v>
+      </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -666,11 +666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2135404320"/>
-        <c:axId val="2129686768"/>
+        <c:axId val="937289728"/>
+        <c:axId val="937287552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2135404320"/>
+        <c:axId val="937289728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129686768"/>
+        <c:crossAx val="937287552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -776,7 +776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129686768"/>
+        <c:axId val="937287552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2135404320"/>
+        <c:crossAx val="937289728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1326,6 +1326,12 @@
                 <c:pt idx="5">
                   <c:v>59</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1341,11 +1347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129690576"/>
-        <c:axId val="2129694384"/>
+        <c:axId val="937288096"/>
+        <c:axId val="937290272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129690576"/>
+        <c:axId val="937288096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,7 +1455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129694384"/>
+        <c:crossAx val="937290272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1457,7 +1463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129694384"/>
+        <c:axId val="937290272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129690576"/>
+        <c:crossAx val="937288096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3043,7 +3049,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3434,14 +3440,14 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3596,6 +3602,10 @@
         <f t="shared" si="0"/>
         <v>64.260000000000005</v>
       </c>
+      <c r="C9">
+        <f>C8+7</f>
+        <v>66</v>
+      </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
@@ -3610,6 +3620,9 @@
       <c r="B10">
         <f t="shared" si="0"/>
         <v>59.97</v>
+      </c>
+      <c r="C10">
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -666,11 +666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="937289728"/>
-        <c:axId val="937287552"/>
+        <c:axId val="-243175104"/>
+        <c:axId val="-243184352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="937289728"/>
+        <c:axId val="-243175104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="937287552"/>
+        <c:crossAx val="-243184352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -776,7 +776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="937287552"/>
+        <c:axId val="-243184352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="937289728"/>
+        <c:crossAx val="-243175104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1332,6 +1332,33 @@
                 <c:pt idx="7">
                   <c:v>66</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1347,11 +1374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="937288096"/>
-        <c:axId val="937290272"/>
+        <c:axId val="-243183808"/>
+        <c:axId val="-243180000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="937288096"/>
+        <c:axId val="-243183808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,11 +1405,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Days Till release</a:t>
+                  <a:t>Days Till sprint</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> one</a:t>
+                  <a:t> release</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-AU"/>
               </a:p>
@@ -1455,7 +1482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="937290272"/>
+        <c:crossAx val="-243180000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1463,7 +1490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="937290272"/>
+        <c:axId val="-243180000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,7 +1597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="937288096"/>
+        <c:crossAx val="-243183808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3439,8 +3466,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3639,6 +3666,9 @@
         <f t="shared" si="0"/>
         <v>55.68</v>
       </c>
+      <c r="C11">
+        <v>66</v>
+      </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
@@ -3654,6 +3684,9 @@
         <f t="shared" si="0"/>
         <v>51.39</v>
       </c>
+      <c r="C12">
+        <v>66</v>
+      </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -3669,6 +3702,9 @@
         <f t="shared" si="0"/>
         <v>47.1</v>
       </c>
+      <c r="C13">
+        <v>66</v>
+      </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -3684,6 +3720,9 @@
         <f t="shared" si="0"/>
         <v>42.81</v>
       </c>
+      <c r="C14">
+        <v>66</v>
+      </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
@@ -3699,6 +3738,9 @@
         <f t="shared" si="0"/>
         <v>38.520000000000003</v>
       </c>
+      <c r="C15">
+        <v>66</v>
+      </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
@@ -3714,6 +3756,9 @@
         <f t="shared" si="0"/>
         <v>34.229999999999997</v>
       </c>
+      <c r="C16">
+        <v>66</v>
+      </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
@@ -3729,6 +3774,9 @@
         <f t="shared" si="0"/>
         <v>29.94</v>
       </c>
+      <c r="C17">
+        <v>66</v>
+      </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
@@ -3744,6 +3792,9 @@
         <f t="shared" si="0"/>
         <v>25.65</v>
       </c>
+      <c r="C18">
+        <v>66</v>
+      </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
@@ -3758,6 +3809,10 @@
       <c r="B19">
         <f t="shared" si="0"/>
         <v>21.36</v>
+      </c>
+      <c r="C19">
+        <f>C18-16</f>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -666,11 +666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-243175104"/>
-        <c:axId val="-243184352"/>
+        <c:axId val="210256704"/>
+        <c:axId val="210257248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-243175104"/>
+        <c:axId val="210256704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-243184352"/>
+        <c:crossAx val="210257248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -776,7 +776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-243184352"/>
+        <c:axId val="210257248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-243175104"/>
+        <c:crossAx val="210256704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1359,6 +1359,12 @@
                 <c:pt idx="16">
                   <c:v>50</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1374,11 +1380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-243183808"/>
-        <c:axId val="-243180000"/>
+        <c:axId val="430793744"/>
+        <c:axId val="430788848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-243183808"/>
+        <c:axId val="430793744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,7 +1488,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-243180000"/>
+        <c:crossAx val="430788848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1490,7 +1496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-243180000"/>
+        <c:axId val="430788848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-243183808"/>
+        <c:crossAx val="430793744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3466,8 +3472,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3829,6 +3835,9 @@
         <f t="shared" si="0"/>
         <v>17.07</v>
       </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
@@ -3843,6 +3852,10 @@
       <c r="B21">
         <f t="shared" si="0"/>
         <v>12.78</v>
+      </c>
+      <c r="C21">
+        <f>C20-8</f>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sprint 4" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
   <si>
     <t>Days</t>
   </si>
@@ -168,6 +169,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -666,11 +668,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210256704"/>
-        <c:axId val="210257248"/>
+        <c:axId val="-99559664"/>
+        <c:axId val="-99578160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210256704"/>
+        <c:axId val="-99559664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,6 +704,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -768,7 +771,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210257248"/>
+        <c:crossAx val="-99578160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -776,7 +779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210257248"/>
+        <c:axId val="-99578160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,6 +825,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -882,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210256704"/>
+        <c:crossAx val="-99559664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1357,13 +1361,22 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42</c:v>
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,11 +1393,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430793744"/>
-        <c:axId val="430788848"/>
+        <c:axId val="-99576528"/>
+        <c:axId val="-99564560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430793744"/>
+        <c:axId val="-99576528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430788848"/>
+        <c:crossAx val="-99564560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430788848"/>
+        <c:axId val="-99564560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +1616,614 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430793744"/>
+        <c:crossAx val="-99576528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 4'!$A$3:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$B$3:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.285714285714278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.428571428571416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.571428571428555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.714285714285701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 4'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 4'!$A$3:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$C$3:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-99577616"/>
+        <c:axId val="-99577072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-99577616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Days Till Release 2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-99577072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-99577072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Tasks to be done</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-99577616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1732,6 +2352,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2236,6 +2896,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2774,6 +3937,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3076,7 +4276,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -3472,8 +4672,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3817,8 +5017,8 @@
         <v>21.36</v>
       </c>
       <c r="C19">
-        <f>C18-16</f>
-        <v>50</v>
+        <f>57</f>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -3836,7 +5036,7 @@
         <v>17.07</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -3855,7 +5055,7 @@
       </c>
       <c r="C21">
         <f>C20-8</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -3872,6 +5072,9 @@
         <f t="shared" si="0"/>
         <v>8.49</v>
       </c>
+      <c r="C22">
+        <v>49</v>
+      </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
@@ -3887,6 +5090,9 @@
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
+      <c r="C23">
+        <v>49</v>
+      </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
@@ -3902,12 +5108,322 @@
         <f xml:space="preserve"> ROUND(B23 - (B$3 / 21),0)</f>
         <v>0</v>
       </c>
+      <c r="C24">
+        <v>49</v>
+      </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="1">
         <v>42653</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42653</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42653</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f xml:space="preserve"> B3 - ($B$3/14)</f>
+        <v>89.142857142857139</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <f xml:space="preserve"> B4 - ($B$3/14)</f>
+        <v>82.285714285714278</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B17" si="0" xml:space="preserve"> B5 - ($B$3/14)</f>
+        <v>75.428571428571416</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>68.571428571428555</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>42657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>61.714285714285701</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>54.857142857142847</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>47.999999999999993</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>41.142857142857139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>27.428571428571427</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>20.571428571428569</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>13.714285714285712</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>6.857142857142855</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>Days</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks Done </t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -668,11 +670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-99559664"/>
-        <c:axId val="-99578160"/>
+        <c:axId val="1874051664"/>
+        <c:axId val="1874038608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-99559664"/>
+        <c:axId val="1874051664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,7 +706,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -771,7 +772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-99578160"/>
+        <c:crossAx val="1874038608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -779,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-99578160"/>
+        <c:axId val="1874038608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +826,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -886,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-99559664"/>
+        <c:crossAx val="1874051664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -975,7 +975,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1393,11 +1392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-99576528"/>
-        <c:axId val="-99564560"/>
+        <c:axId val="1874049488"/>
+        <c:axId val="1874036432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-99576528"/>
+        <c:axId val="1874049488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +1433,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1501,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-99564560"/>
+        <c:crossAx val="1874036432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1509,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-99564560"/>
+        <c:axId val="1874036432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1553,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1616,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-99576528"/>
+        <c:crossAx val="1874049488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1990,6 +1987,9 @@
                 <c:pt idx="0">
                   <c:v>96</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2005,11 +2005,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-99577616"/>
-        <c:axId val="-99577072"/>
+        <c:axId val="1874042416"/>
+        <c:axId val="1874042960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-99577616"/>
+        <c:axId val="1874042416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-99577072"/>
+        <c:crossAx val="1874042960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2116,7 +2116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-99577072"/>
+        <c:axId val="1874042960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-99577616"/>
+        <c:crossAx val="1874042416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3977,15 +3977,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5129,10 +5129,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5142,13 +5142,13 @@
     <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5165,13 +5165,16 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14</v>
       </c>
@@ -5187,14 +5190,17 @@
       <c r="E3" s="1">
         <v>42653</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>42653</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>42667</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -5202,14 +5208,21 @@
         <f xml:space="preserve"> B3 - ($B$3/14)</f>
         <v>89.142857142857139</v>
       </c>
+      <c r="C4">
+        <f>C3-F4</f>
+        <v>90</v>
+      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1">
         <v>42654</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -5223,8 +5236,11 @@
       <c r="E5" s="1">
         <v>42655</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -5238,8 +5254,11 @@
       <c r="E6" s="1">
         <v>42656</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -5253,8 +5272,11 @@
       <c r="E7" s="1">
         <v>42657</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -5268,8 +5290,11 @@
       <c r="E8" s="1">
         <v>42658</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5283,8 +5308,11 @@
       <c r="E9" s="1">
         <v>42659</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5298,8 +5326,11 @@
       <c r="E10" s="1">
         <v>42660</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5313,8 +5344,11 @@
       <c r="E11" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -5328,8 +5362,11 @@
       <c r="E12" s="1">
         <v>42662</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -5343,8 +5380,11 @@
       <c r="E13" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5358,8 +5398,11 @@
       <c r="E14" s="1">
         <v>42664</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5373,8 +5416,11 @@
       <c r="E15" s="1">
         <v>42665</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5388,8 +5434,11 @@
       <c r="E16" s="1">
         <v>42666</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5403,26 +5452,29 @@
       <c r="E17" s="1">
         <v>42667</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" s="1"/>
     </row>
   </sheetData>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -670,11 +670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1874051664"/>
-        <c:axId val="1874038608"/>
+        <c:axId val="-329604048"/>
+        <c:axId val="-327522688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1874051664"/>
+        <c:axId val="-329604048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1874038608"/>
+        <c:crossAx val="-327522688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1874038608"/>
+        <c:axId val="-327522688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1874051664"/>
+        <c:crossAx val="-329604048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,11 +1392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1874049488"/>
-        <c:axId val="1874036432"/>
+        <c:axId val="-147932864"/>
+        <c:axId val="-147934496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1874049488"/>
+        <c:axId val="-147932864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1874036432"/>
+        <c:crossAx val="-147934496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1874036432"/>
+        <c:axId val="-147934496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1874049488"/>
+        <c:crossAx val="-147932864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1990,6 +1990,9 @@
                 <c:pt idx="1">
                   <c:v>90</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2005,11 +2008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1874042416"/>
-        <c:axId val="1874042960"/>
+        <c:axId val="-147933952"/>
+        <c:axId val="-147940480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1874042416"/>
+        <c:axId val="-147933952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2111,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1874042960"/>
+        <c:crossAx val="-147940480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2116,7 +2119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1874042960"/>
+        <c:axId val="-147940480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1874042416"/>
+        <c:crossAx val="-147933952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5132,7 +5135,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5230,6 +5233,10 @@
         <f xml:space="preserve"> B4 - ($B$3/14)</f>
         <v>82.285714285714278</v>
       </c>
+      <c r="C5">
+        <f>C4-F5</f>
+        <v>85</v>
+      </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -5237,7 +5244,7 @@
         <v>42655</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -670,11 +670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-329604048"/>
-        <c:axId val="-327522688"/>
+        <c:axId val="-1643245424"/>
+        <c:axId val="-1643232912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-329604048"/>
+        <c:axId val="-1643245424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-327522688"/>
+        <c:crossAx val="-1643232912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-327522688"/>
+        <c:axId val="-1643232912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-329604048"/>
+        <c:crossAx val="-1643245424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,11 +1392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-147932864"/>
-        <c:axId val="-147934496"/>
+        <c:axId val="-1604951424"/>
+        <c:axId val="-1604950336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-147932864"/>
+        <c:axId val="-1604951424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-147934496"/>
+        <c:crossAx val="-1604950336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-147934496"/>
+        <c:axId val="-1604950336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-147932864"/>
+        <c:crossAx val="-1604951424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1993,6 +1993,12 @@
                 <c:pt idx="2">
                   <c:v>85</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2008,11 +2014,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-147933952"/>
-        <c:axId val="-147940480"/>
+        <c:axId val="-1602673056"/>
+        <c:axId val="-1602666528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-147933952"/>
+        <c:axId val="-1602673056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,7 +2117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-147940480"/>
+        <c:crossAx val="-1602666528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2119,7 +2125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-147940480"/>
+        <c:axId val="-1602666528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-147933952"/>
+        <c:crossAx val="-1602673056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5135,7 +5141,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5255,6 +5261,10 @@
         <f t="shared" ref="B6:B17" si="0" xml:space="preserve"> B5 - ($B$3/14)</f>
         <v>75.428571428571416</v>
       </c>
+      <c r="C6">
+        <f>C5-F6</f>
+        <v>85</v>
+      </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -5273,6 +5283,10 @@
         <f t="shared" si="0"/>
         <v>68.571428571428555</v>
       </c>
+      <c r="C7">
+        <f>C6-F7</f>
+        <v>69</v>
+      </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -5280,7 +5294,7 @@
         <v>42657</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -670,11 +670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1643245424"/>
-        <c:axId val="-1643232912"/>
+        <c:axId val="-1952139152"/>
+        <c:axId val="-1952142960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1643245424"/>
+        <c:axId val="-1952139152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1643232912"/>
+        <c:crossAx val="-1952142960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1643232912"/>
+        <c:axId val="-1952142960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1643245424"/>
+        <c:crossAx val="-1952139152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,11 +1392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1604951424"/>
-        <c:axId val="-1604950336"/>
+        <c:axId val="-1952145136"/>
+        <c:axId val="-1952151120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1604951424"/>
+        <c:axId val="-1952145136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1604950336"/>
+        <c:crossAx val="-1952151120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1604950336"/>
+        <c:axId val="-1952151120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1604951424"/>
+        <c:crossAx val="-1952145136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1999,6 +1999,9 @@
                 <c:pt idx="4">
                   <c:v>69</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2014,11 +2017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1602673056"/>
-        <c:axId val="-1602666528"/>
+        <c:axId val="-1952146224"/>
+        <c:axId val="-1952142416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1602673056"/>
+        <c:axId val="-1952146224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,7 +2120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1602666528"/>
+        <c:crossAx val="-1952142416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2125,7 +2128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1602666528"/>
+        <c:axId val="-1952142416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1602673056"/>
+        <c:crossAx val="-1952146224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5141,7 +5144,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5305,6 +5308,10 @@
         <f t="shared" si="0"/>
         <v>61.714285714285701</v>
       </c>
+      <c r="C8">
+        <f>C7-F8</f>
+        <v>54</v>
+      </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
@@ -5312,7 +5319,7 @@
         <v>42658</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -670,11 +670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1952139152"/>
-        <c:axId val="-1952142960"/>
+        <c:axId val="1437938560"/>
+        <c:axId val="1437934208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1952139152"/>
+        <c:axId val="1437938560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952142960"/>
+        <c:crossAx val="1437934208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1952142960"/>
+        <c:axId val="1437934208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952139152"/>
+        <c:crossAx val="1437938560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,11 +1392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1952145136"/>
-        <c:axId val="-1952151120"/>
+        <c:axId val="1438401872"/>
+        <c:axId val="1438408944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1952145136"/>
+        <c:axId val="1438401872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952151120"/>
+        <c:crossAx val="1438408944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1952151120"/>
+        <c:axId val="1438408944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952145136"/>
+        <c:crossAx val="1438401872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1837,49 +1837,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.142857142857139</c:v>
+                  <c:v>93.785714285714292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.285714285714278</c:v>
+                  <c:v>86.571428571428584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.428571428571416</c:v>
+                  <c:v>79.357142857142875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.571428571428555</c:v>
+                  <c:v>72.142857142857167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.714285714285701</c:v>
+                  <c:v>64.928571428571459</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.857142857142847</c:v>
+                  <c:v>57.714285714285744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.999999999999993</c:v>
+                  <c:v>50.500000000000028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.142857142857139</c:v>
+                  <c:v>43.285714285714313</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.285714285714285</c:v>
+                  <c:v>36.071428571428598</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.428571428571427</c:v>
+                  <c:v>28.857142857142883</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.571428571428569</c:v>
+                  <c:v>21.642857142857167</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.714285714285712</c:v>
+                  <c:v>14.428571428571452</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.857142857142855</c:v>
+                  <c:v>7.2142857142857375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.3092638912203256E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,22 +1985,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>85</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,11 +2020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1952146224"/>
-        <c:axId val="-1952142416"/>
+        <c:axId val="1436951392"/>
+        <c:axId val="1791677312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1952146224"/>
+        <c:axId val="1436951392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +2123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952142416"/>
+        <c:crossAx val="1791677312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2128,7 +2131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1952142416"/>
+        <c:axId val="1791677312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,7 +2238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1952146224"/>
+        <c:crossAx val="1436951392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5144,7 +5147,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5191,10 +5194,10 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5218,11 +5221,11 @@
       </c>
       <c r="B4">
         <f xml:space="preserve"> B3 - ($B$3/14)</f>
-        <v>89.142857142857139</v>
+        <v>93.785714285714292</v>
       </c>
       <c r="C4">
         <f>C3-F4</f>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -5240,11 +5243,11 @@
       </c>
       <c r="B5">
         <f xml:space="preserve"> B4 - ($B$3/14)</f>
-        <v>82.285714285714278</v>
+        <v>86.571428571428584</v>
       </c>
       <c r="C5">
         <f>C4-F5</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -5262,11 +5265,11 @@
       </c>
       <c r="B6">
         <f t="shared" ref="B6:B17" si="0" xml:space="preserve"> B5 - ($B$3/14)</f>
-        <v>75.428571428571416</v>
+        <v>79.357142857142875</v>
       </c>
       <c r="C6">
         <f>C5-F6</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -5284,11 +5287,11 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>68.571428571428555</v>
+        <v>72.142857142857167</v>
       </c>
       <c r="C7">
         <f>C6-F7</f>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -5306,11 +5309,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>61.714285714285701</v>
+        <v>64.928571428571459</v>
       </c>
       <c r="C8">
         <f>C7-F8</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5328,7 +5331,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>54.857142857142847</v>
+        <v>57.714285714285744</v>
+      </c>
+      <c r="C9">
+        <f>C8-F9</f>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -5346,7 +5353,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>47.999999999999993</v>
+        <v>50.500000000000028</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -5364,7 +5371,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>41.142857142857139</v>
+        <v>43.285714285714313</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -5382,7 +5389,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>34.285714285714285</v>
+        <v>36.071428571428598</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -5400,7 +5407,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>27.428571428571427</v>
+        <v>28.857142857142883</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -5418,7 +5425,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>20.571428571428569</v>
+        <v>21.642857142857167</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -5436,7 +5443,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>13.714285714285712</v>
+        <v>14.428571428571452</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -5454,7 +5461,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>6.857142857142855</v>
+        <v>7.2142857142857375</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -5472,7 +5479,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3092638912203256E-14</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -670,11 +670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1437938560"/>
-        <c:axId val="1437934208"/>
+        <c:axId val="844088496"/>
+        <c:axId val="844091216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1437938560"/>
+        <c:axId val="844088496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1437934208"/>
+        <c:crossAx val="844091216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1437934208"/>
+        <c:axId val="844091216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1437938560"/>
+        <c:crossAx val="844088496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,11 +1392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1438401872"/>
-        <c:axId val="1438408944"/>
+        <c:axId val="706228208"/>
+        <c:axId val="706216784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1438401872"/>
+        <c:axId val="706228208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1438408944"/>
+        <c:crossAx val="706216784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1438408944"/>
+        <c:axId val="706216784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1438401872"/>
+        <c:crossAx val="706228208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1837,49 +1837,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.785714285714292</c:v>
+                  <c:v>87.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.571428571428584</c:v>
+                  <c:v>80.571428571428584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.357142857142875</c:v>
+                  <c:v>73.857142857142875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.142857142857167</c:v>
+                  <c:v>67.142857142857167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.928571428571459</c:v>
+                  <c:v>60.428571428571452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.714285714285744</c:v>
+                  <c:v>53.714285714285737</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.500000000000028</c:v>
+                  <c:v>47.000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.285714285714313</c:v>
+                  <c:v>40.285714285714306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.071428571428598</c:v>
+                  <c:v>33.571428571428591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.857142857142883</c:v>
+                  <c:v>26.857142857142875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.642857142857167</c:v>
+                  <c:v>20.14285714285716</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.428571428571452</c:v>
+                  <c:v>13.428571428571445</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2142857142857375</c:v>
+                  <c:v>6.7142857142857304</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3092638912203256E-14</c:v>
+                  <c:v>1.5987211554602254E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,25 +1985,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>101</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59</c:v>
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,11 +2023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1436951392"/>
-        <c:axId val="1791677312"/>
+        <c:axId val="675377424"/>
+        <c:axId val="675374704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1436951392"/>
+        <c:axId val="675377424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1791677312"/>
+        <c:crossAx val="675374704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2131,7 +2134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1791677312"/>
+        <c:axId val="675374704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,7 +2241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1436951392"/>
+        <c:crossAx val="675377424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5147,7 +5150,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5194,10 +5197,10 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5221,11 +5224,11 @@
       </c>
       <c r="B4">
         <f xml:space="preserve"> B3 - ($B$3/14)</f>
-        <v>93.785714285714292</v>
+        <v>87.285714285714292</v>
       </c>
       <c r="C4">
-        <f>C3-F4</f>
-        <v>95</v>
+        <f t="shared" ref="C4:C10" si="0">C3-F4</f>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -5243,11 +5246,11 @@
       </c>
       <c r="B5">
         <f xml:space="preserve"> B4 - ($B$3/14)</f>
-        <v>86.571428571428584</v>
+        <v>80.571428571428584</v>
       </c>
       <c r="C5">
-        <f>C4-F5</f>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -5264,12 +5267,12 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B17" si="0" xml:space="preserve"> B5 - ($B$3/14)</f>
-        <v>79.357142857142875</v>
+        <f t="shared" ref="B6:B17" si="1" xml:space="preserve"> B5 - ($B$3/14)</f>
+        <v>73.857142857142875</v>
       </c>
       <c r="C6">
-        <f>C5-F6</f>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -5286,12 +5289,12 @@
         <v>10</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>67.142857142857167</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>72.142857142857167</v>
-      </c>
-      <c r="C7">
-        <f>C6-F7</f>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -5308,12 +5311,12 @@
         <v>9</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>60.428571428571452</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>64.928571428571459</v>
-      </c>
-      <c r="C8">
-        <f>C7-F8</f>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -5330,12 +5333,12 @@
         <v>8</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>53.714285714285737</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>57.714285714285744</v>
-      </c>
-      <c r="C9">
-        <f>C8-F9</f>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -5352,8 +5355,12 @@
         <v>7</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>47.000000000000021</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>50.500000000000028</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -5362,7 +5369,7 @@
         <v>42660</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5370,8 +5377,8 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>43.285714285714313</v>
+        <f t="shared" si="1"/>
+        <v>40.285714285714306</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -5388,8 +5395,8 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>36.071428571428598</v>
+        <f t="shared" si="1"/>
+        <v>33.571428571428591</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -5406,8 +5413,8 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>28.857142857142883</v>
+        <f t="shared" si="1"/>
+        <v>26.857142857142875</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -5424,8 +5431,8 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>21.642857142857167</v>
+        <f t="shared" si="1"/>
+        <v>20.14285714285716</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -5442,8 +5449,8 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>14.428571428571452</v>
+        <f t="shared" si="1"/>
+        <v>13.428571428571445</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -5460,8 +5467,8 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>7.2142857142857375</v>
+        <f t="shared" si="1"/>
+        <v>6.7142857142857304</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -5478,8 +5485,8 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>2.3092638912203256E-14</v>
+        <f t="shared" si="1"/>
+        <v>1.5987211554602254E-14</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -670,11 +670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="844088496"/>
-        <c:axId val="844091216"/>
+        <c:axId val="-1335515792"/>
+        <c:axId val="-1335508720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="844088496"/>
+        <c:axId val="-1335515792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="844091216"/>
+        <c:crossAx val="-1335508720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="844091216"/>
+        <c:axId val="-1335508720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="844088496"/>
+        <c:crossAx val="-1335515792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,11 +1392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="706228208"/>
-        <c:axId val="706216784"/>
+        <c:axId val="-1335510352"/>
+        <c:axId val="-1335512528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="706228208"/>
+        <c:axId val="-1335510352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706216784"/>
+        <c:crossAx val="-1335512528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="706216784"/>
+        <c:axId val="-1335512528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706228208"/>
+        <c:crossAx val="-1335510352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2008,6 +2008,12 @@
                 <c:pt idx="7">
                   <c:v>45</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2023,11 +2029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675377424"/>
-        <c:axId val="675374704"/>
+        <c:axId val="-1335517424"/>
+        <c:axId val="-1335516880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="675377424"/>
+        <c:axId val="-1335517424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,7 +2132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675374704"/>
+        <c:crossAx val="-1335516880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2134,7 +2140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="675374704"/>
+        <c:axId val="-1335516880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675377424"/>
+        <c:crossAx val="-1335517424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5150,7 +5156,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5227,7 +5233,7 @@
         <v>87.285714285714292</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C10" si="0">C3-F4</f>
+        <f t="shared" ref="C4:C12" si="0">C3-F4</f>
         <v>88</v>
       </c>
       <c r="D4" t="s">
@@ -5380,6 +5386,10 @@
         <f t="shared" si="1"/>
         <v>40.285714285714306</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
@@ -5398,6 +5408,10 @@
         <f t="shared" si="1"/>
         <v>33.571428571428591</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -5405,7 +5419,7 @@
         <v>42662</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -670,11 +670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1335515792"/>
-        <c:axId val="-1335508720"/>
+        <c:axId val="-939971632"/>
+        <c:axId val="-939971088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1335515792"/>
+        <c:axId val="-939971632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1335508720"/>
+        <c:crossAx val="-939971088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1335508720"/>
+        <c:axId val="-939971088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1335515792"/>
+        <c:crossAx val="-939971632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,11 +1392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1335510352"/>
-        <c:axId val="-1335512528"/>
+        <c:axId val="-939965104"/>
+        <c:axId val="-939966736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1335510352"/>
+        <c:axId val="-939965104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1335512528"/>
+        <c:crossAx val="-939966736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1335512528"/>
+        <c:axId val="-939966736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1335510352"/>
+        <c:crossAx val="-939965104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2009,10 +2009,13 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,11 +2032,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1335517424"/>
-        <c:axId val="-1335516880"/>
+        <c:axId val="-939962928"/>
+        <c:axId val="-1205822960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1335517424"/>
+        <c:axId val="-939962928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1335516880"/>
+        <c:crossAx val="-1205822960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2140,7 +2143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1335516880"/>
+        <c:axId val="-1205822960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,7 +2250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1335517424"/>
+        <c:crossAx val="-939962928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5156,7 +5159,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5233,7 +5236,7 @@
         <v>87.285714285714292</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C12" si="0">C3-F4</f>
+        <f t="shared" ref="C4:C13" si="0">C3-F4</f>
         <v>88</v>
       </c>
       <c r="D4" t="s">
@@ -5388,7 +5391,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -5397,7 +5400,7 @@
         <v>42661</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5410,7 +5413,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -5430,6 +5433,10 @@
         <f t="shared" si="1"/>
         <v>26.857142857142875</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -5437,7 +5444,7 @@
         <v>42663</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint3" sheetId="3" r:id="rId2"/>
     <sheet name="Sprint 4" sheetId="5" r:id="rId3"/>
+    <sheet name="Release 2" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="19">
   <si>
     <t>Days</t>
   </si>
@@ -75,6 +76,15 @@
   <si>
     <t xml:space="preserve">Tasks Done </t>
   </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
 </sst>
 </file>
 
@@ -89,15 +99,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,16 +127,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,11 +715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-939971632"/>
-        <c:axId val="-939971088"/>
+        <c:axId val="-1123948592"/>
+        <c:axId val="-1123948048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-939971632"/>
+        <c:axId val="-1123948592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-939971088"/>
+        <c:crossAx val="-1123948048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-939971088"/>
+        <c:axId val="-1123948048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-939971632"/>
+        <c:crossAx val="-1123948592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -975,6 +1020,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1360,22 +1406,22 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,11 +1438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-939965104"/>
-        <c:axId val="-939966736"/>
+        <c:axId val="-1122247376"/>
+        <c:axId val="-823193984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-939965104"/>
+        <c:axId val="-1122247376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,6 +1479,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1499,7 +1546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-939966736"/>
+        <c:crossAx val="-823193984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-939966736"/>
+        <c:axId val="-823193984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,6 +1600,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1613,7 +1661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-939965104"/>
+        <c:crossAx val="-1122247376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2017,6 +2065,18 @@
                 <c:pt idx="10">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2032,11 +2092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-939962928"/>
-        <c:axId val="-1205822960"/>
+        <c:axId val="-823191808"/>
+        <c:axId val="-823187456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-939962928"/>
+        <c:axId val="-823191808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2135,7 +2195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205822960"/>
+        <c:crossAx val="-823187456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2143,7 +2203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1205822960"/>
+        <c:axId val="-823187456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,8 +2310,910 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-939962928"/>
+        <c:crossAx val="-823191808"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Release 2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Release 2'!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Release 2'!$B$3:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.11429000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.22857999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.34287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.45716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116.57145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.68574</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108.80003000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104.91432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101.02861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.142899999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.257189999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.371480000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.485770000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>81.600059999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77.714349999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.828639999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69.942930000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66.057220000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.171509999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58.285800000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.400089999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.514380000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.62867</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.742959999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38.857250000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34.971539999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.085830000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.200119999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.314409999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.428699999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.54299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.65728</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7715699999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8858600000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Release 2'!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Release 2'!$C$3:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1167129648"/>
+        <c:axId val="-1167121488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1167129648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Days Till sprint</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> release</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1167121488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1167121488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Tasks to be done</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1167129648"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2419,6 +3381,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3426,6 +4428,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4014,6 +5519,43 @@
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4699,8 +6241,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5044,8 +6586,8 @@
         <v>21.36</v>
       </c>
       <c r="C19">
-        <f>57</f>
-        <v>57</v>
+        <f>56</f>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -5063,7 +6605,7 @@
         <v>17.07</v>
       </c>
       <c r="C20">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -5082,7 +6624,7 @@
       </c>
       <c r="C21">
         <f>C20-8</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -5100,7 +6642,7 @@
         <v>8.49</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -5118,7 +6660,7 @@
         <v>4.2</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -5136,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -5158,8 +6700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,7 +6778,7 @@
         <v>87.285714285714292</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C13" si="0">C3-F4</f>
+        <f t="shared" ref="C4:C17" si="0">C3-F4</f>
         <v>88</v>
       </c>
       <c r="D4" t="s">
@@ -5455,6 +6997,10 @@
         <f t="shared" si="1"/>
         <v>20.14285714285716</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
@@ -5462,7 +7008,7 @@
         <v>42664</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5473,6 +7019,10 @@
         <f t="shared" si="1"/>
         <v>13.428571428571445</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
@@ -5491,6 +7041,10 @@
         <f t="shared" si="1"/>
         <v>6.7142857142857304</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
@@ -5509,6 +7063,10 @@
         <f t="shared" si="1"/>
         <v>1.5987211554602254E-14</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
@@ -5539,6 +7097,903 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5">
+        <v>136</v>
+      </c>
+      <c r="C3" s="5">
+        <v>136</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6">
+        <v>42632</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
+        <v>42632</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5">
+        <f xml:space="preserve"> ROUND(B3 - (B$3 / 35),5)</f>
+        <v>132.11429000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <f>C3-F4</f>
+        <v>136</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
+        <v>42633</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5">
+        <f xml:space="preserve"> ROUND(B4 - (B$3 / 35),5)</f>
+        <v>128.22857999999999</v>
+      </c>
+      <c r="C5" s="5">
+        <f>C4-F5</f>
+        <v>138</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6">
+        <v>42634</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" ref="B6:B38" si="0" xml:space="preserve"> ROUND(B5 - (B$3 / 35),5)</f>
+        <v>124.34287</v>
+      </c>
+      <c r="C6" s="5">
+        <f>C5-F6</f>
+        <v>135</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>42635</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>120.45716</v>
+      </c>
+      <c r="C7" s="5">
+        <f>C6-F7</f>
+        <v>113</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6">
+        <v>42636</v>
+      </c>
+      <c r="F7" s="5">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>116.57145</v>
+      </c>
+      <c r="C8" s="5">
+        <f>C7-F8</f>
+        <v>105</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
+        <v>42637</v>
+      </c>
+      <c r="F8" s="5">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>112.68574</v>
+      </c>
+      <c r="C9" s="5">
+        <f>C8-F9</f>
+        <v>112</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6">
+        <v>42638</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-7</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>108.80003000000001</v>
+      </c>
+      <c r="C10" s="5">
+        <f>C9-F10</f>
+        <v>112</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6">
+        <v>42639</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>104.91432</v>
+      </c>
+      <c r="C11" s="5">
+        <f>C10-F11</f>
+        <v>112</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6">
+        <v>42640</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>101.02861</v>
+      </c>
+      <c r="C12" s="5">
+        <f>C11-F12</f>
+        <v>112</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6">
+        <v>42641</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>97.142899999999997</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C12-F13</f>
+        <v>112</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6">
+        <v>42642</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>93.257189999999994</v>
+      </c>
+      <c r="C14" s="5">
+        <f>C13-F14</f>
+        <v>112</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>42643</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>89.371480000000005</v>
+      </c>
+      <c r="C15" s="5">
+        <f>C14-F15</f>
+        <v>112</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6">
+        <v>42644</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>85.485770000000002</v>
+      </c>
+      <c r="C16" s="5">
+        <f>C15-F16</f>
+        <v>112</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="6">
+        <v>42645</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>81.600059999999999</v>
+      </c>
+      <c r="C17" s="5">
+        <f>C16-F17</f>
+        <v>112</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6">
+        <v>42646</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>77.714349999999996</v>
+      </c>
+      <c r="C18" s="5">
+        <f>C17-F18</f>
+        <v>112</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
+        <v>42647</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>73.828639999999993</v>
+      </c>
+      <c r="C19" s="5">
+        <f>C18-F19</f>
+        <v>102</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6">
+        <v>42648</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>69.942930000000004</v>
+      </c>
+      <c r="C20" s="5">
+        <f>C19-F20</f>
+        <v>102</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6">
+        <v>42649</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>66.057220000000001</v>
+      </c>
+      <c r="C21" s="5">
+        <f>C20-F21</f>
+        <v>94</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6">
+        <v>42650</v>
+      </c>
+      <c r="F21" s="5">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>62.171509999999998</v>
+      </c>
+      <c r="C22" s="5">
+        <f>C21-F22</f>
+        <v>94</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6">
+        <v>42651</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>58.285800000000002</v>
+      </c>
+      <c r="C23" s="5">
+        <f>C22-F23</f>
+        <v>94</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="6">
+        <v>42652</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7">
+        <f t="shared" si="0"/>
+        <v>54.400089999999999</v>
+      </c>
+      <c r="C24" s="7">
+        <f>C23-F24</f>
+        <v>94</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="8">
+        <v>42653</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>13</v>
+      </c>
+      <c r="B25" s="7">
+        <f t="shared" si="0"/>
+        <v>50.514380000000003</v>
+      </c>
+      <c r="C25" s="7">
+        <f>C24-F25</f>
+        <v>88</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="8">
+        <v>42654</v>
+      </c>
+      <c r="F25" s="7">
+        <v>6</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>12</v>
+      </c>
+      <c r="B26" s="7">
+        <f t="shared" si="0"/>
+        <v>46.62867</v>
+      </c>
+      <c r="C26" s="7">
+        <f>C25-F26</f>
+        <v>83</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="8">
+        <v>42655</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>11</v>
+      </c>
+      <c r="B27" s="7">
+        <f t="shared" si="0"/>
+        <v>42.742959999999997</v>
+      </c>
+      <c r="C27" s="7">
+        <f>C26-F27</f>
+        <v>83</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="8">
+        <v>42656</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>10</v>
+      </c>
+      <c r="B28" s="7">
+        <f t="shared" si="0"/>
+        <v>38.857250000000001</v>
+      </c>
+      <c r="C28" s="7">
+        <f>C27-F28</f>
+        <v>67</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="8">
+        <v>42657</v>
+      </c>
+      <c r="F28" s="7">
+        <v>16</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>9</v>
+      </c>
+      <c r="B29" s="7">
+        <f t="shared" si="0"/>
+        <v>34.971539999999997</v>
+      </c>
+      <c r="C29" s="7">
+        <f>C28-F29</f>
+        <v>52</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8">
+        <v>42658</v>
+      </c>
+      <c r="F29" s="7">
+        <v>15</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>8</v>
+      </c>
+      <c r="B30" s="7">
+        <f t="shared" si="0"/>
+        <v>31.085830000000001</v>
+      </c>
+      <c r="C30" s="7">
+        <f>C29-F30</f>
+        <v>52</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="8">
+        <v>42659</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>7</v>
+      </c>
+      <c r="B31" s="7">
+        <f t="shared" si="0"/>
+        <v>27.200119999999998</v>
+      </c>
+      <c r="C31" s="7">
+        <f>C30-F31</f>
+        <v>45</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="8">
+        <v>42660</v>
+      </c>
+      <c r="F31" s="7">
+        <v>7</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7">
+        <f t="shared" si="0"/>
+        <v>23.314409999999999</v>
+      </c>
+      <c r="C32" s="7">
+        <f>C31-F32</f>
+        <v>40</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="8">
+        <v>42661</v>
+      </c>
+      <c r="F32" s="7">
+        <v>5</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7">
+        <f t="shared" si="0"/>
+        <v>19.428699999999999</v>
+      </c>
+      <c r="C33" s="7">
+        <f>C32-F33</f>
+        <v>30</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="8">
+        <v>42662</v>
+      </c>
+      <c r="F33" s="7">
+        <v>10</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>4</v>
+      </c>
+      <c r="B34" s="7">
+        <f t="shared" si="0"/>
+        <v>15.54299</v>
+      </c>
+      <c r="C34" s="7">
+        <f>C33-F34</f>
+        <v>12</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="8">
+        <v>42663</v>
+      </c>
+      <c r="F34" s="7">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7">
+        <f t="shared" si="0"/>
+        <v>11.65728</v>
+      </c>
+      <c r="C35" s="7">
+        <f>C34-F35</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="8">
+        <v>42664</v>
+      </c>
+      <c r="F35" s="7">
+        <v>12</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>2</v>
+      </c>
+      <c r="B36" s="7">
+        <f t="shared" si="0"/>
+        <v>7.7715699999999996</v>
+      </c>
+      <c r="C36" s="7">
+        <f>C35-F36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="8">
+        <v>42665</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8858600000000001</v>
+      </c>
+      <c r="C37" s="7">
+        <f>C36-F37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="8">
+        <v>42666</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>0</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <f>C37-F38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="8">
+        <v>42667</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
